--- a/URS/DbLayouts/L4-批次作業/PostAuthLog.xlsx
+++ b/URS/DbLayouts/L4-批次作業/PostAuthLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AA827-203B-4B76-BA0B-FE5329AC4083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E8011-3146-45E3-8E5F-334121E4B6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="媒體檔規格" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="246">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,22 +90,22 @@
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelAcctName</t>
@@ -118,90 +118,70 @@
   </si>
   <si>
     <t>帳戶別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>帳號碼</t>
   </si>
   <si>
     <t>核印取消日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修改者櫃員編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CustId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ProcessDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StampCancelDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RetrDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RelationCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>提出日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>提回日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>與借款人關係</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>AuthCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>郵局授權記錄檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayAcctSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthApplCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostAuthLog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepayAcct</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>custNoEq</t>
@@ -245,11 +225,11 @@
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>申請代號，狀態碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
@@ -268,15 +248,15 @@
   </si>
   <si>
     <t>第三人帳戶戶名</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三人出生日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>第三人性別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Index4</t>
@@ -303,15 +283,15 @@
   </si>
   <si>
     <t>AuthCreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建立者櫃員編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>額度</t>
@@ -337,11 +317,11 @@
   </si>
   <si>
     <t>AmlRsp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StampFinishDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>mediaCodeEq</t>
@@ -361,11 +341,11 @@
   </si>
   <si>
     <t>PostMediaCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PostDepCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PostMediaCode = ,AND PropDate &gt;= ,AND PropDate &lt;= </t>
@@ -401,11 +381,11 @@
   </si>
   <si>
     <t>PostMediaCode,AuthErrorCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StampCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>fileSeqFirst</t>
@@ -413,7 +393,7 @@
   </si>
   <si>
     <t>PropDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>媒體檔流水編號</t>
@@ -429,7 +409,7 @@
   </si>
   <si>
     <t>處理日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>媒體產出前為0</t>
@@ -441,10 +421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AuthErrorCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>狀況代號，授權狀態</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,7 +467,7 @@
   </si>
   <si>
     <t>第三人身分證字號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>facmNoEq</t>
@@ -535,7 +511,7 @@
   </si>
   <si>
     <t>檔案說明：依儲金帳號排序</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -570,7 +546,7 @@
       </rPr>
       <t>郵局扣款授權紀錄檔</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -672,7 +648,7 @@
       </rPr>
       <t>=01</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -762,7 +738,7 @@
       </rPr>
       <t>=02</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -852,7 +828,7 @@
       </rPr>
       <t>=01</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -942,7 +918,7 @@
       </rPr>
       <t>=02</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>資料別</t>
@@ -965,11 +941,11 @@
   </si>
   <si>
     <t>委託機構代號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2-4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>X(3)</t>
@@ -979,14 +955,14 @@
   </si>
   <si>
     <t>53N</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>保留欄</t>
   </si>
   <si>
     <t>5-8</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>X(4)</t>
@@ -996,15 +972,15 @@
   </si>
   <si>
     <t>空白</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>媒體產生日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>9-16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>X(8)</t>
@@ -1041,7 +1017,7 @@
       </rPr>
       <t>CUSCDT</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
@@ -1067,15 +1043,15 @@
   </si>
   <si>
     <t>001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>999</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>流水號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>20-25</t>
@@ -1104,14 +1080,14 @@
       </rPr>
       <t>序編</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>POANUM</t>
   </si>
   <si>
     <t>000001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1170,7 +1146,7 @@
       </rPr>
       <t>：終止</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1235,7 +1211,7 @@
       </rPr>
       <t>已回復為申請</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1276,7 +1252,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>帳戶別</t>
@@ -1305,7 +1281,7 @@
   </si>
   <si>
     <t>POSCDE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>28-41</t>
@@ -1337,7 +1313,7 @@
   </si>
   <si>
     <t>LMSPCN</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1366,7 +1342,7 @@
   </si>
   <si>
     <t>用戶編號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>42-61</t>
@@ -1377,7 +1353,7 @@
   <si>
     <t>右靠左補空，大寫英數字，不得填寫中文
 由委託機構自行編給其客戶之編號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1432,7 +1408,7 @@
       </rPr>
       <t>CUSID1+POSCDE+LMSACN</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>身分證統一編號或統一證號</t>
@@ -1465,11 +1441,11 @@
       </rPr>
       <t>CUSID1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>狀況代號</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>72-73</t>
@@ -1479,7 +1455,7 @@
   </si>
   <si>
     <t>初始值為空白，回送資料請參閱媒體資料不符代號一覽表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1491,7 +1467,7 @@
       </rPr>
       <t>空白</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>核對註記</t>
@@ -1504,7 +1480,7 @@
   </si>
   <si>
     <t>尾錄</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1656,7 +1632,7 @@
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1735,7 +1711,7 @@
       </rPr>
       <t>加總檔案資料筆數</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1876,8 +1852,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CdCode:AuthCode
+1期款2火險</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:PostDepCode
+P：存簿G：劃撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:RelationCode
+00本人
+01夫
+02妻
+03父
+04母
+05子
+06女
+07兄
+08弟
+09姊
+10妹
+11姪子
+99其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthApplCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局授權記錄檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode:AuthApplCode
+1.申請
+2.終止
+3.郵局終止
+4.誤終止
+9.暫停授權(DeleteDate &gt; 0時，顯示用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫停授權日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostAuthLog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode:AuthErrorCode
-空白:未授權
+空白:未授權('':再次授權)
 00:成功
 03:已終止代繳
 06:凍結警示戶
@@ -1898,40 +1930,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthCode
-1期款2火險</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:PostDepCode
-P：存簿G：劃撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AuthApplCode
-1.申請(恢復授權)
-2.終止
-3.郵局終止
-4.誤終止
-9.暫停授權</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>custNoAuthErrorCodeEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND AuthApplCode ^i ,AND AuthErrorCode ^i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthErrorCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayAcct DESC,AuthCreateDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxCd</t>
+  </si>
+  <si>
+    <t>交易代號</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1941,7 +1960,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2001,13 +2020,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -2020,14 +2032,6 @@
       <name val="思源宋體"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -2078,6 +2082,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -2204,7 +2215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2262,22 +2273,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2292,116 +2288,137 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2742,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2760,25 +2777,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -2788,12 +2805,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -2803,10 +2820,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -2814,12 +2831,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
+      <c r="B5" s="44"/>
+      <c r="C5" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -2827,12 +2844,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="21" t="s">
-        <v>98</v>
+      <c r="B6" s="46"/>
+      <c r="C6" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -2840,12 +2857,12 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
+      <c r="B7" s="47"/>
+      <c r="C7" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -2853,12 +2870,12 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
+      <c r="A8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -2889,544 +2906,562 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="62">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="B10" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="65">
+        <v>8</v>
+      </c>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="1:7" ht="97.2">
+      <c r="A11" s="62">
+        <v>2</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="62">
+        <v>1</v>
+      </c>
+      <c r="G11" s="66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="62">
+        <v>3</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="65">
+        <v>7</v>
+      </c>
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.4">
+      <c r="A13" s="62">
+        <v>4</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="65">
+        <v>1</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="62">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="16">
+        <v>14</v>
+      </c>
+      <c r="G14" s="66"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.4">
+      <c r="A15" s="62">
+        <v>6</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="62">
+        <v>1</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="62">
+        <v>7</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="62">
+        <v>3</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="62">
+        <v>8</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="65">
+        <v>10</v>
+      </c>
+      <c r="G17" s="66"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="62">
+        <v>9</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="65">
+        <v>2</v>
+      </c>
+      <c r="G18" s="66"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="62">
+        <v>10</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="65">
+        <v>8</v>
+      </c>
+      <c r="G19" s="66"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="62">
+        <v>11</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="65">
+        <v>8</v>
+      </c>
+      <c r="G20" s="66"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="62">
+        <v>12</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="65">
+        <v>8</v>
+      </c>
+      <c r="G21" s="66"/>
+    </row>
+    <row r="22" spans="1:7" ht="97.2">
+      <c r="A22" s="62">
+        <v>13</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="62">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32.4">
+      <c r="A23" s="62">
+        <v>14</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="62">
+        <v>1</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="307.8">
+      <c r="A24" s="62">
+        <v>15</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="62">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="62">
+        <v>16</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="62">
+        <v>6</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="62">
+        <v>17</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="65">
+        <v>8</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="62">
+        <v>18</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="65">
+        <v>8</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="62">
+        <v>19</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="65">
+        <v>8</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" ht="226.8">
+      <c r="A29" s="62">
+        <v>20</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="62">
+        <v>2</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="62">
+        <v>21</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="62">
+        <v>100</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="62">
+        <v>22</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="62">
+        <v>10</v>
+      </c>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="62">
+        <v>23</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="22">
+      <c r="D32" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="65">
         <v>8</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" ht="97.2">
-      <c r="A11" s="19">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="62">
+        <v>24</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E33" s="62">
         <v>1</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>3</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="22">
-        <v>7</v>
-      </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:7" ht="32.4">
-      <c r="A13" s="19">
-        <v>4</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="G33" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="64.8">
+      <c r="A34" s="62">
+        <v>25</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="62">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="62">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="B35" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="E35" s="62">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="G35" s="63"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="62">
+        <v>27</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="29">
-        <v>14</v>
-      </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7" ht="32.4">
-      <c r="A15" s="19">
+      <c r="E36" s="62">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="62">
+        <v>28</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="62">
+        <v>29</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>7</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="19">
-        <v>3</v>
-      </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>8</v>
-      </c>
-      <c r="B17" s="21" t="s">
+      <c r="E38" s="62">
+        <v>6</v>
+      </c>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="62">
         <v>30</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="22">
-        <v>10</v>
-      </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="22">
-        <v>2</v>
-      </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>10</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="22">
-        <v>8</v>
-      </c>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
-        <v>11</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="22">
-        <v>8</v>
-      </c>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
-        <v>12</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="22">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" ht="97.2">
-      <c r="A22" s="19">
-        <v>13</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32.4">
-      <c r="A23" s="19">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="19">
-        <v>1</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="307.8">
-      <c r="A24" s="19">
-        <v>15</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="19">
-        <v>2</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>16</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="19">
-        <v>6</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>17</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="22">
-        <v>8</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>18</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="22">
-        <v>8</v>
-      </c>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>19</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="22">
-        <v>8</v>
-      </c>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:7" ht="226.8">
-      <c r="A29" s="19">
-        <v>20</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="19">
-        <v>2</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
-        <v>21</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="19">
-        <v>100</v>
-      </c>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
+      <c r="B39" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="19">
-        <v>10</v>
-      </c>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19">
-        <v>23</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="22">
-        <v>8</v>
-      </c>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19">
-        <v>24</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="64.8">
-      <c r="A34" s="19">
-        <v>25</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="19">
-        <v>26</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="19">
-        <v>6</v>
-      </c>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="19">
-        <v>27</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="19">
-        <v>28</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="19">
-        <v>6</v>
-      </c>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="19">
-        <v>29</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="G38" s="25"/>
+      <c r="C39" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3447,11 +3482,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3475,167 +3510,178 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21" t="s">
-        <v>55</v>
+      <c r="A7" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3646,7 +3692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514CE2F7-2393-405A-A2F6-22A419A7AC6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -3666,951 +3712,951 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="48.6">
+      <c r="A4" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="56" t="s">
+      <c r="H4" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="48.6">
-      <c r="A4" s="34" t="s">
+      <c r="I4" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="J4" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="30">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="32">
+        <v>1</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="32">
+        <v>846</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="32">
+        <v>846</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="31.8">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="30">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="30">
+        <v>6</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="97.2">
+      <c r="A11" s="30">
+        <v>7</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="30">
+        <v>26</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1</v>
+      </c>
+      <c r="J11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="30">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="30">
+        <v>27</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="52">
+        <v>9</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="52"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="48"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.8">
+      <c r="A15" s="30">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="48"/>
+      <c r="G15" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32.4">
+      <c r="A16" s="30">
         <v>11</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="B16" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="48"/>
+      <c r="G16" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="30">
+        <v>12</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="48"/>
+      <c r="G17" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="30">
+        <v>13</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="30">
+        <v>74</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="48"/>
+      <c r="G18" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="30">
+        <v>14</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="48"/>
+      <c r="G19" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="48.6">
+      <c r="A24" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="57" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="39">
+        <v>1</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="39">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="35" t="s">
+      <c r="E25" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="41">
+        <v>2</v>
+      </c>
+      <c r="H25" s="41">
+        <v>2</v>
+      </c>
+      <c r="I25" s="41">
+        <v>2</v>
+      </c>
+      <c r="J25" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="39">
+        <v>2</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="42">
+        <v>43135</v>
+      </c>
+      <c r="D26" s="39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="E26" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F26" s="53"/>
+      <c r="G26" s="41">
+        <v>846</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="38">
-        <v>1</v>
-      </c>
-      <c r="J5" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="36">
-        <v>2</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="39" t="s">
+      <c r="I26" s="41">
+        <v>846</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="39">
+        <v>3</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="42">
+        <v>43228</v>
+      </c>
+      <c r="D27" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="38">
-        <v>846</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="38">
-        <v>846</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="36">
-        <v>3</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="E27" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="53"/>
+      <c r="G27" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.8">
+      <c r="A28" s="39">
+        <v>4</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="42">
+        <v>43359</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="54" t="s">
+      <c r="E28" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="53"/>
+      <c r="G28" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.8">
-      <c r="A8" s="36">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37" t="s">
+      <c r="H28" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="39">
+        <v>5</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="D29" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="54" t="s">
+      <c r="E29" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="38" t="s">
+      <c r="H29" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="J29" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="36">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="36" t="s">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="57">
+        <v>6</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="57">
+        <v>20</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="57"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="53"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="39">
+        <v>7</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="36">
-        <v>6</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="97.2">
-      <c r="A11" s="36">
-        <v>7</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="36">
-        <v>26</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="36">
+      <c r="E32" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="53"/>
+      <c r="G32" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="I32" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="57">
         <v>8</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="36">
-        <v>27</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="58">
+      <c r="B33" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H33" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="57"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="53"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="58"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.8">
-      <c r="A15" s="36">
+      <c r="B35" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="53"/>
+      <c r="G35" s="41">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="39">
         <v>10</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32.4">
-      <c r="A16" s="36">
+      <c r="B36" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="53"/>
+      <c r="G36" s="41">
+        <v>0</v>
+      </c>
+      <c r="H36" s="41">
+        <v>0</v>
+      </c>
+      <c r="I36" s="41">
+        <v>0</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="39">
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="54" t="s">
+      <c r="B37" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="54"/>
-      <c r="G16" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="J16" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="36">
-        <v>12</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="36">
-        <v>13</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="36">
-        <v>74</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="36">
-        <v>14</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" ht="48.6">
-      <c r="A24" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="45">
-        <v>1</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="45">
-        <v>1</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="47">
-        <v>2</v>
-      </c>
-      <c r="H25" s="47">
-        <v>2</v>
-      </c>
-      <c r="I25" s="47">
-        <v>2</v>
-      </c>
-      <c r="J25" s="47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="45">
-        <v>2</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="48">
-        <v>43135</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="47">
-        <v>846</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" s="47">
-        <v>846</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="45">
-        <v>3</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="48">
-        <v>43228</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="31.8">
-      <c r="A28" s="45">
-        <v>4</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C28" s="48">
-        <v>43359</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="45">
-        <v>5</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="63">
-        <v>6</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="63">
-        <v>20</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="I30" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="63"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="45">
-        <v>7</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="J32" s="47" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="63">
-        <v>8</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="I33" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="63"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="59"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="45">
-        <v>9</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="59"/>
-      <c r="G35" s="47">
-        <v>0</v>
-      </c>
-      <c r="H35" s="47">
-        <v>0</v>
-      </c>
-      <c r="I35" s="47">
-        <v>0</v>
-      </c>
-      <c r="J35" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="45">
-        <v>10</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="47">
-        <v>0</v>
-      </c>
-      <c r="H36" s="47">
-        <v>0</v>
-      </c>
-      <c r="I36" s="47">
-        <v>0</v>
-      </c>
-      <c r="J36" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="45">
-        <v>11</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>200</v>
+      <c r="H37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4670,7 +4716,7 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
